--- a/acervo separado/Acervo_Construção_artistica.xlsx
+++ b/acervo separado/Acervo_Construção_artistica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697404E0-073B-43D6-A0A0-B6CD83C10F57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0CFFE7-F959-4585-A8AA-88A72A8A862D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$S$4</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$S$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,9 +111,6 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Óleo/madeira</t>
-  </si>
-  <si>
     <t xml:space="preserve">  cie</t>
   </si>
   <si>
@@ -134,9 +138,6 @@
     <t>Maquiné ou Caverna</t>
   </si>
   <si>
-    <t>Pedra, massa, fibra vegetal/madeira</t>
-  </si>
-  <si>
     <t>52,0 x 68,0 x 5,5 cm</t>
   </si>
   <si>
@@ -149,9 +150,6 @@
     <t>Virgem com Menino</t>
   </si>
   <si>
-    <t>Vidro, cerâmica, pedra, massa e fibra vegetal/madeira</t>
-  </si>
-  <si>
     <t>100,0 x 76,0 x 4,5 cm</t>
   </si>
   <si>
@@ -201,6 +199,15 @@
   </si>
   <si>
     <t>76,0 cm</t>
+  </si>
+  <si>
+    <t>mattec_219</t>
+  </si>
+  <si>
+    <t>mattec_238</t>
+  </si>
+  <si>
+    <t>mattec_304</t>
   </si>
 </sst>
 </file>
@@ -586,7 +593,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -672,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -692,28 +699,28 @@
         <v>3237</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
         <v>25</v>
@@ -722,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -736,13 +743,13 @@
         <v>59,5 cm</v>
       </c>
       <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -750,16 +757,16 @@
         <v>3238</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -768,10 +775,10 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
@@ -780,27 +787,27 @@
         <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
         <v>24</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T7" si="0">IFERROR(LEFT(K3,SEARCH("x",K3)-1),"")&amp;"cm"</f>
+        <f t="shared" ref="T3:T4" si="0">IFERROR(LEFT(K3,SEARCH("x",K3)-1),"")&amp;"cm"</f>
         <v>52,0 cm</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U7" si="1">MID(K3,LEN(T3)+1,5)&amp;"cm"</f>
+        <f t="shared" ref="U3:U4" si="1">MID(K3,LEN(T3)+1,5)&amp;"cm"</f>
         <v>68,0 cm</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -808,28 +815,28 @@
         <v>3239</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
@@ -838,10 +845,10 @@
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="0"/>
@@ -852,13 +859,13 @@
         <v>76,0 cm</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
